--- a/collection/各种集合的比较.xlsx
+++ b/collection/各种集合的比较.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Julian\my\techonoly\translate-article\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Julian\my\techonoly\translate-article\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BA0E9E-35F4-4981-B8F6-A20153A1DF81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A376437F-9543-461F-ABA7-47C005A03E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
   <si>
     <t>HashMap</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +303,61 @@
   <si>
     <t>数组
 （继承Vector）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreeSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红黑树
+（底层基于TreeMap）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序不可重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认按自然顺序，可指定比较器进行自定义排序，不可重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkedHashSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、链表、红黑树
+（底层基于LinkedHashMap）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认排序中键不允许，值允许；自定义排序中键值对都允许</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 * capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CopyOnWriteArraySet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制数组
+(底层基于CopyOnWriteArrayList)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有序可重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capacity + 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +786,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C24" sqref="C24"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1021,7 +1076,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1121,69 +1176,91 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2BA3E9-E601-4B42-88F9-DC848543C9CF}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="6" width="28.375" customWidth="1"/>
+    <col min="3" max="3" width="57.75" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1191,21 +1268,27 @@
         <v>10</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="6">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
